--- a/UFTOne_FlightAPIAutomationTests/Default.xlsx
+++ b/UFTOne_FlightAPIAutomationTests/Default.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="1 LoginUmit" sheetId="2" r:id="rId2"/>
+    <sheet name="1 LoginUnit" sheetId="2" r:id="rId2"/>
     <sheet name="2 RestAPITestCreateOrderUnit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="40001"/>
